--- a/biology/Zoologie/Haramiyida/Haramiyida.xlsx
+++ b/biology/Zoologie/Haramiyida/Haramiyida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Haramiyida (haramiyidiens en français) sont un clade fossile de Mammaliaformes ayant vécu du Trias supérieur jusqu'à la fin du Crétacé, il y a 66 Ma (millions d'années), sur une période d'environ 150 Ma. 
-Les haramiyidiens ont longtemps été considérés comme appartenant au groupe-couronne des mammifères[1],[2]. Ils sont aujourd'hui plutôt rattachés aux Mammaliaformes au sein desquels ils occupent une position assez basale en amont de ce groupe-couronne des mammifères[3],[4],[5].
-En 2018, une étude internationale montre que les haramiyidiens forment un groupe monophylétique de Mammaliaformes non-mammifères (n'allaitant pas leurs petits et pondant probablement des œufs) avec, notamment, les gondwanathériens[6].
+Les haramiyidiens ont longtemps été considérés comme appartenant au groupe-couronne des mammifères,. Ils sont aujourd'hui plutôt rattachés aux Mammaliaformes au sein desquels ils occupent une position assez basale en amont de ce groupe-couronne des mammifères.
+En 2018, une étude internationale montre que les haramiyidiens forment un groupe monophylétique de Mammaliaformes non-mammifères (n'allaitant pas leurs petits et pondant probablement des œufs) avec, notamment, les gondwanathériens.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Distribution géographique et stratigraphique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Haramiyidiens ont d'abord été découverts en Europe, souvent sous forme de dents isolés (la partie du squelette qui est le plus souvent préservée lors de la fossilisation). D'autres genres ont ensuite été identifiés en Afrique et au Groenland. Depuis 2015, un grand nombre de nouveaux genres ont été décrits dans le Jurassique de  Chine et de Mongolie, non plus à partir de dents isolées mais de squelettes souvent complets et très bien conservés, comme c'est le cas par exemple dans la formation de Tiaojishan dans le nord-est de la Chine.
-L'haramiyidien le plus récent date du Maastrichtien (fin du Crétacé). Il s'agit d'un fossile indien nommé Avashishta bacharamensis[7]. D'autres haramiyidiens du Crétacé inférieur ont été découverts au Maroc, laissant supposer que ces animaux ont pu survivre sur le Gondwana à l'état de reliques à cette époque.  Cependant en 2018, un haramiyidien nord-américain du même âge a été décrit, Cifelliodon, qui montre l'existence de communications entre les deux continents[6]. Avec une durée d'existence de l'ordre de 150 Ma (millions d'années), les haramiyidiens ont la lignée la plus durable dans le temps parmi les Mammaliaformes.
+L'haramiyidien le plus récent date du Maastrichtien (fin du Crétacé). Il s'agit d'un fossile indien nommé Avashishta bacharamensis. D'autres haramiyidiens du Crétacé inférieur ont été découverts au Maroc, laissant supposer que ces animaux ont pu survivre sur le Gondwana à l'état de reliques à cette époque.  Cependant en 2018, un haramiyidien nord-américain du même âge a été décrit, Cifelliodon, qui montre l'existence de communications entre les deux continents. Avec une durée d'existence de l'ordre de 150 Ma (millions d'années), les haramiyidiens ont la lignée la plus durable dans le temps parmi les Mammaliaformes.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Paléobiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Haramiyida sont des animaux à pelage, de petite taille, arboricoles ou terrestres, avec des régimes alimentaires herbivores ou omnivores, très variés (fruits, graines, insectes…). Certains d'entre eux possèdent des membranes de peau tendues entre les membres et différentes parties du corps, des patagiums, comme Arboroharamiya, Vilevolodon et Maiopatagium, qui en font des animaux « volants » en vol plané à la manière des écureuils volants actuels[5],[8]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Haramiyida sont des animaux à pelage, de petite taille, arboricoles ou terrestres, avec des régimes alimentaires herbivores ou omnivores, très variés (fruits, graines, insectes…). Certains d'entre eux possèdent des membranes de peau tendues entre les membres et différentes parties du corps, des patagiums, comme Arboroharamiya, Vilevolodon et Maiopatagium, qui en font des animaux « volants » en vol plané à la manière des écureuils volants actuels,. 
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cladogramme des Mammaliaformes selon Brusatte et Luo en 2016 montrant la position phylogénétique des Haramiyida[9] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cladogramme des Mammaliaformes selon Brusatte et Luo en 2016 montrant la position phylogénétique des Haramiyida :
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Liste des sous-taxons</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Kirtlingtonia Butler &amp; Hooker, 2005 [taxon basé sur des dents]
@@ -622,30 +642,30 @@
 Sineleutherus Martin, Averianov et Pfretzschner, 2010
 S. uyguricus Martin, Averianov &amp; Pfretzschner 2010
 S. issedonicus Averianov, Lopatin &amp; Krasnolutskii 2011
-Vilevolodon  Luo et al.[8], 2017
+Vilevolodon  Luo et al., 2017
 Xianshou et al., 2014
 X. linglong Bi et al., 2014
 X. songae Bi et al., 2014
 Famille des Arboroharamiyidae Zheng et al., 2013
 Arboroharamiya Zheng et al., 2013
-Famille des Shenshouidae Mao et Meng[10], 2019
-Qishou Mao et Meng[10], 2019
+Famille des Shenshouidae Mao et Meng, 2019
+Qishou Mao et Meng, 2019
 Shenshou Bi et al., 2014
 Sharypovoia Averianov et al., 2019
-Famille des Theroteinidae Sigogneau-Russell, Frank &amp; Hammerle[11], 1986
-Theroteinus nikolai Sigogneau-Russell, Frank &amp; Hammerle[11], 1986
-Theroteinus rosieriensis Sigogneau-Russell[11], 2016
+Famille des Theroteinidae Sigogneau-Russell, Frank &amp; Hammerle, 1986
+Theroteinus nikolai Sigogneau-Russell, Frank &amp; Hammerle, 1986
+Theroteinus rosieriensis Sigogneau-Russell, 2016
 Famille des Haramiyidae Poche, 1908
 Eoraetica
 Avashishta Anantharaman et al., 2006
-? Allostaffia (Heinrich, 1999) Heinrich, 2004  [possible gondwanathérien[12]]
+? Allostaffia (Heinrich, 1999) Heinrich, 2004  [possible gondwanathérien]
 Thomasia Poche, 1908
 T. woutersi Butler et MacIntyre, 1994
 T. hahni Butler et MacIntyre, 1994
 T. moorei (Owen 1871) Butler et MacIntyre, 1994 [taxon basé sur des dents]
 T. antiqua (Plieninger, 1847) Poche, 1908 [taxon basé sur des dents]
 Famille des Hahnodontidae
-Cifelliodon Huttenlocker et al.[6], 2018
+Cifelliodon Huttenlocker et al., 2018
 Hahnodon Sigogneau-Russell, 1991
 ? Denisodon Hahn et Hahn, 2003
 ? Gondwanatheria
